--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-15.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,6 +1225,258 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>...nights</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>～泊|～はく</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>with...</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>～付|～つき</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>with breakfast</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>朝食付き|ちょうしょくつき</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>one night with two meals</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>一泊二食付|いっぱくにしょくつき</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>checking in</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>チェックイン（する）</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>checking out</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>チェックアウト（する）</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>single room</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>シングル</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>double room</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ダブル</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>twin room</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ツイン</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>...person(s)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>～名|～めい</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>receptionist; front desk</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>フロント</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>non-smoking</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>禁煙|きんえん</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>喫煙|きつえん</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>large spa</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>大浴場|だいよくじょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>I have a reservation under the name of XX.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>予約した○○です。|よやくしたまるまるです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Could you check me in, please?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>チェックインお願いします。|チェックインおねがいします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Can I pay by XX?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>○○で払えますか。|まるまるではらえますか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Can you change US dollars to Japanese yen?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>アメリカドルを日本円に両替できますか。|アメリカドルをにほんえんにりょうがえできますか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Would you call a taxi for us?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>タクシーを呼んでもらえますか。|タクシーをよんでもらえますか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Are there any restaurants you recommend near here?</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>近くにおすすめのレストランがありますか。|ちかくにおすすめのレストランがありますか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Could you keep my luggage until 2 o'clock?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>二時まで荷物を預かってくれませんか。|にじまでにもつをあずかってくれませんか。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-15.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,6 +1477,774 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>to die</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>死ぬ|しぬ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>死|し</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>desperate</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>必死|ひっし</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>the dead</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>死者|ししゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>meaning</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>意味|いみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>to watch out</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>注意する|ちゅういする</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>opinion</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>意見|いけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>to prepare</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>用意する|よういする</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>hobby</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>趣味|しゅみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>興味|きょうみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>soybean paste</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>味噌|みそ</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>taste</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>味|あじ</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>to watch out</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>注意する|ちゅういする</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>to order</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>注文する|ちゅうもんする</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>to pour</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>注ぐ|そそぐ</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>夏|なつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>summer vacation</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>夏休み|なつやすみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>early summer</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>初夏|しょか</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>fish</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>魚|さかな</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>fish shop</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>魚屋|さかなや</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>gold fish</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>金魚|きんぎょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>mermaid</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>人魚|にんぎょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>fish market</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>魚市場|うおいちば</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>temple</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>お寺|おてら</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Toji Temple</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>東寺|とうじ</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sacred building</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>寺院|じいん</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Zen temple</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>禅寺|ぜんでら</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>wide; spacious</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>広い|ひろい</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>square; open space</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>広場|ひろば</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Hiroshima</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>広島|ひろしま</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>advertisement</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>広告|こうこく</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>foot; leg</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>足|あし</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>to be sufficient</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>足りる|たりる</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>one pair of shoes</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>一足|いっそく</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>lack of water</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>水不足|みずぶそく</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>bicycle</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>自転車|じてんしゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>to drive</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>運転する|うんてんする</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>conveyor belt sushi</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>回転ずし|かいてんずし</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>to tumble; to fall down</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>転ぶ|ころぶ</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>to borrow</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>借りる|かりる</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>rented land</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>借地|しゃくち</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>借金|しゃっきん</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>rented house</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>借家|しゃくや</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>to run</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>走る|はしる</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>hasty writing</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>走り書き|はしりがき</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>escape from a prison</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>脱走|だっそう</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>場所|ばしょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>factory</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>工場|こうじょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>市場|いちば</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>場合|ばあい</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>parking lot</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>駐車場|ちゅうしゃじょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>建物|たてもの</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>to build</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>建てる|たてる</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>to be built</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>建つ|たつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>founding a nation</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>建国|けんこく</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>underground</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>地下|ちか</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>subway</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>地下鉄|ちかてつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>地図|ちず</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>the earth</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>地球|ちきゅう</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>earthquake</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>地震|じしん</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>to go through; to pass</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>通る|とおる</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>to commute</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>通う|かよう</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>going to school</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>通学|つうがく</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>going to work</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>通勤|つうきん</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-15.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-15.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2246,6 +2246,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>